--- a/backend/fms_core/tests/invalid_templates/Normalization_planning_v4_5_0_Missing_Input.xlsx
+++ b/backend/fms_core/tests/invalid_templates/Normalization_planning_v4_5_0_Missing_Input.xlsx
@@ -2312,7 +2312,7 @@
         <v>2800</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
